--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
@@ -91,7 +91,192 @@
   Indicator-JS-4.0</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1;
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0251
+};
+validate4
+{
+validate_Screenshot=VT200_0251
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0254
+};
+validate4
+{
+validate_Screenshot=VT200_0254_before
+};
+validate5
+{
+validate_Screenshot=VT200_0254_after
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0255
+};
+validate4
+{
+validate_Screenshot=VT200_0255
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0256
+};
+validate4
+{
+validate_Screenshot=VT200_0256
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0257
+};
+validate4
+{
+validate_Screenshot=VT200_0257
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0258
+};
+validate4
+{
+validate_Screenshot=VT200_0258
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0259
+};
+validate4
+{
+validate_Screenshot=VT200_0259
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0260
+};
+validate4
+{
+validate_Screenshot=VT200_0260
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0261
+};
+validate4
+{
+validate_Screenshot=VT200_0261
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0262
+};
+validate4
+{
+validate_Screenshot=VT200_0262
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
 link_Click(battery_test_link);
 validate2;
 SelectTestToRun(VT200_0251_string);
@@ -104,295 +289,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0255_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0255);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0256_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0256);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0257_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0257);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0258_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0258);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0259_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0259);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0260_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0260);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0261_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0261);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0262_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0262);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0251
-};
-validate4
-{
-validate_Screenshot=VT200_0251
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0254
-};
-validate4
-{
-validate_Screenshot=VT200_0254_before
-};
-validate5
-{
-validate_Screenshot=VT200_0254_after
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0255
-};
-validate4
-{
-validate_Screenshot=VT200_0255
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0256
-};
-validate4
-{
-validate_Screenshot=VT200_0256
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0257
-};
-validate4
-{
-validate_Screenshot=VT200_0257
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0258
-};
-validate4
-{
-validate_Screenshot=VT200_0258
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0259
-};
-validate4
-{
-validate_Screenshot=VT200_0259
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0260
-};
-validate4
-{
-validate_Screenshot=VT200_0260
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0261
-};
-validate4
-{
-validate_Screenshot=VT200_0261
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0262
-};
-validate4
-{
-validate_Screenshot=VT200_0262
-};</t>
-  </si>
-  <si>
-    <t>validate1;
+    <t>wait(3);
+validate1;
 link_Click(battery_test_link);
 validate2;
 SelectTestToRun(VT200_0254_string);
@@ -405,6 +303,116 @@
 wait(10);
 TakeScreenshot(VT200_0254_after);
 validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0255_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0255);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0256_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0256);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0257_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0257);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0258_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0258);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0259_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0259);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0260_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0260);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0261_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0261);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0262_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeScreenshot(VT200_0262);
+validate4;
+</t>
   </si>
 </sst>
 </file>
@@ -867,7 +875,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -875,7 +883,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -934,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -963,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -990,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1015,10 +1023,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1042,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1069,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1096,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1123,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1150,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1177,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1202,12 +1210,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
@@ -875,7 +875,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_JS.xlsx
@@ -101,87 +101,11 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0251
+validate_Text_Exists=VT200-0255
 };
 validate4
 {
-validate_Screenshot=VT200_0251
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0254
-};
-validate4
-{
-validate_Screenshot=VT200_0254_before
-};
-validate5
-{
-validate_Screenshot=VT200_0254_after
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0255
-};
-validate4
-{
 validate_Screenshot=VT200_0255
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0256
-};
-validate4
-{
-validate_Screenshot=VT200_0256
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0257
-};
-validate4
-{
-validate_Screenshot=VT200_0257
 };</t>
   </si>
   <si>
@@ -293,22 +217,6 @@
 validate1;
 link_Click(battery_test_link);
 validate2;
-SelectTestToRun(VT200_0254_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0254_before);
-validate4;
-wait(10);
-TakeScreenshot(VT200_0254_after);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
 SelectTestToRun(VT200_0255_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -316,33 +224,6 @@
 wait(3);
 TakeScreenshot(VT200_0255);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0256_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0256);
-validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0257_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0257);
-validate4;
-</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -411,6 +292,123 @@
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 TakeScreenshot(VT200_0262);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0254_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;
+wait(10);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0254
+};
+validate4
+{
+validate_isIconDisplayed=batteryview_xpath,true
+};
+validate5
+{
+validate_isIconDisplayed=batteryview_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0251
+};
+validate4
+{
+validate_Screenshot=VT200_0251
+validate_Iconposition=batteryview_xpath,left,20
+validate_Iconposition=batteryview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0256
+};
+validate4
+{
+validate_Iconposition=batteryview_xpath,left,40
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0256_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0257
+};
+validate4
+{
+validate_Iconposition=batteryview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0257_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
 validate4;
 </t>
   </si>
@@ -922,7 +920,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="180.75" thickBot="1">
+    <row r="2" spans="1:11" ht="203.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -942,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -971,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -998,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1023,10 +1021,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1050,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1077,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1104,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1131,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1158,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1185,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
